--- a/500all/speech_level/speeches_CHRG-114hhrg99757.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99757.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. This subcommittee will come to order. Members present will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    In recent months, violent attacks in Europe and expanding jihadist networks in Northern Africa have provided tragic and senseless reminders of the threat that terrorism and extremism pose to the world. As we discuss the global fight against the threat of terrorism, we don't first think of Southeast Asia. But this vibrant region, home to nearly 40 percent of the world's Muslim population, is also a crucial part of the global war on terror. Southeast Asia captures less U.S. media attention than other headline-grabbing flash points, but the region's efforts to combat extremism are vital to maintaining stability in some of the world's most successful Muslim majority states and ultimately to protecting the security of our homeland.    Today, we will discuss Southeast Asia's efforts to counter the threat of violent extremism, many of them successful, as well as possible opportunities for improvement. In this hearing, we will focus on the Philippines, Indonesia, and Malaysia, but Southeast Asia as a whole is at particular risk for extremist activity.    This area is home to a large Muslim population, very porous borders, and persistent governance challenges and development needs. Militant Islamic separatists and terrorists have operated in the region for decades, but the fight against such groups has yielded some successes for the United States and our partners.    The Southern Philippine Islands have long been home to active Islamist separatist and terrorist organizations. President Bush included the Philippines as part of the front lines of the global war on terror following 9/11 and launched an effort that helped the Filipinos significantly degrade these groups. These are due, in large part, to joint counterterror operations between Philippine and U.S. Armed Forces as well as close integration between our counterterrorism and development assistance.    The Aquino administration has also made significant progress toward settling Islamic separatist violence in Mindanao with the signing of the comprehensive agreement on the Bangsamoro despite the Philippine Congress' slow progress toward implementing the terms of the agreement.    Although the Philippines has enjoyed some success, it continues to feel the pain of extremist activities. Eighteen Filipino soldiers were killed earlier this week in a clash with the Abu Sayyaf Group.    Islamist militancy has similarly been a decades-long challenge for Indonesia. Indonesia has seen more than its share of domestic terrorist attacks, including the horrific Bali bombings in 2002 and several other attacks in the following years. In response, the Government of Indonesia has built up formidable counterterror capabilities in its military and its police force thanks, in part, to the considerable U.S. capacity building. It has taken great strides in countering military recruitment by marginalizing those who advocate violence and convincing the vast majority of Indonesians that such acts run counter to the teachings of Islam.    However, the Muslim majority nation of 253 million people continues to suffer tragic terrorist attacks, most recently the bomb and gunfire attack in Jakarta in January of this year. Observers credit the Indonesian Government, including the gift leadership of President Jokowi for the comparatively minor damage that the attack caused.    While Malaysia doesn't have a history of indigenous separatists or insurgencies carrying out terrorist attacks, its government has recognized the rising threat posed by global Islamic radicalism and has taken significant measures to counteract this threat. Malaysia continues to promote the moderate practice of Islam and has shifted resources to preventing militancy from taking root in its outlying provinces. Malaysia also continues to step up its counterterrorism cooperation multilaterally and bilaterally including support from ASEAN and participation in the Global Coalition to Counter ISIL.    We have got to ensure that the positive momentum in the fight against extremism in Southeast Asia is not lost. Unfortunately, these successes have been put at risk by changes in the landscape of extremism. Most concerning is the influence of Islamic State, its malicious and viral technology and the internationalization of violence that it promotes. Hundreds of Southeast Asians have joined the Islamic State's ranks in Syria and Iraq to forge new transnational links between the Islamic State and indigenous Southeast Asian extremists. The Islamic State has reached out to Southeast Asians through social media encouraging acts of violence. There is no formal Islamic State affiliate in Southeast Asia today, but there is a threat. The linkage of the Islamic State could empower militants and rekindle a broader terrorist threat in the region.    As global terror and extremism evolves, our strategy must do the same. Today, we are going to discuss how these new challenges will affect counterterror and counter violent extremism in the region.    I was just recently in Indonesia within the last couple of weeks and I met with the newly-appointed Minister of Counterterrorism, an upgrade, I guess, from being the Chief of Police. And I can tell you that this is front and center on their minds and they are very, very concerned about potential calamities in addition to the ones they have already had. But I was able to go to one of the madrasas and meet with some of the student leaders and I was really impressed with the caliber of these young people that I met and the fact that they stand with us against extreme factions with Islam.    I look forward to hearing from our distinguished panel to develop a better understanding of the administration's strategy for this crucial aspect of U.S. foreign policy and to identify further concerns that may need attention from the committee. And I would like to recognize the ranking member today, Ms. Gabbard.</t>
   </si>
   <si>
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman. I appreciate you and Ranking Member Sherman for putting together this important hearing today and for our panelists for coming to share their insights and their thoughts.    While the world focuses on Islamic extremist threats that are facing countries in the Middle East and North Africa, it is critical that we not ignore this growing threat that we are seeing in other countries, in particular, in Southeast Asia which speaks to why this hearing is important.    The chairman talked about Indonesia where we saw an ISIS-linked attack in the capital of Jakarta with eight people being killed last January. Other countries in the region, also being very densely populated, where the concern is that continued attacks could lead to extensive casualties as well as great damage to those communities.    I look forward to hearing from our witnesses about what the U.S. is doing to help stop the spread of extremism in these countries. While it is not directly within this region, I do also want to mention Bangladesh, a country that continues to face growing violent jihadist problem. Last week, Nazimuddin Samad, a secular activist, was hacked to death in Dhaka following a horrific pattern that we have seen there now for the last year.    A few months ago, I introduced a resolution calling on the Government of Bangladesh to protect the rights of all of its religious minorities including Christians, Hindus, atheists, and others from these kinds of attacks. We must take action in these countries while there still is a chance to prevent groups like ISIS and their extremist ideology from growing.    Thank you very much again for being here. I look forward to hearing from you. I yield back.</t>
   </si>
   <si>
@@ -73,27 +67,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Chairman Salmon, Ranking Member Gabbard, distinguished members of the subcommittee, thank you very much for the opportunity to testify today on the very important and timely issue of countering violent extremism in Southeast Asia.    I also thank the committee for its sustained support of our broad engagement across the East Asia-Pacific region exemplified by the chairman's recent travel. Thank you very much for visiting us.    The United States and our partners across Southeast Asia work together to address challenges that transcend borders, including infectious disease, trafficking in persons, wildlife, illicit narcotics, organized crime, and of course, terrorism.    As President Obama told his ASEAN counterparts at the Sunnylands Summit just this February, our global counterterrorism strategy is informed in no small part by the successes over many years of Southeast Asian nations in disrupting terrorist plots, arresting sympathizers of terrorist organizations, and establishing mechanisms to counter extremist narratives.    The January attack in Jakarta referred to by the chairman and the ranking member and other recent attacks around the world, however, demonstrate that terrorist organizations, including ISIL, can support and inspire violence almost anywhere. That is why we are building partnerships with the countries in Southeast Asia facing the most active terrorist threats including Indonesia, Malaysia, the Philippines and others as well as regional organizations like ASEAN.    Indonesia, the world's most populous Muslim majority democracy, has seen success using a rule of law based approach to counterterrorism. Government and civil society leaders have forcibly denounced ISIL. Still, according to Indonesian officials, there are about 300 Indonesians actively fighting in Iraq and in Syria. While this is a small fraction of Indonesia's 250 million plus population, the existence of such fighters and the January 14th attack in Jakarta underscore ISIL's ability to attract recruits and inspire violence in that country. In response, the Indonesian Government recently introduced legislation that would give it better tools to counterterrorism.    Indonesia is an active member of the Global Counterterrorism Forum. The country's active civil society promotes the local practice of Islam as a positive and tolerant alternative to violent extremist ideologies.    To support these efforts, we are working with Indonesia across a range of activities including training law enforcement and judicial sector officials, sharing information to prevent terrorist travel, providing technical advice on prisoner management, and supporting local counter-messaging efforts.    In Malaysia, we are also concerned about ISIL's influence, particularly through online messaging. Since 2013, Malaysian authorities have arrested over 175 terrorist suspects, primarily ISIL supporters under the country's national security legislation. Malaysia joined the Global Coalition to Counter ISIL last September and announced that it will establish a regional center to counter ISIL messaging. We support these efforts and we look forward to attending the Center's opening in the coming months.    We have also strengthened technical assistance since Malaysian Deputy Prime Minister Zahid and Secretary of State John Kerry signed a terrorist watch list sharing arrangement this past October.    In the Philippines, terrorist and criminal elements such as the Abu Sayyaf group, exploit the security environment in the Southern Mindanao region. Although some terrorist groups have pledged allegiance to ISIL, most are focused on criminality and lack strong ideological motivations. We provide, train, and equip programs to support law enforcement and military forces in the Southern Philippines which have strengthened local capabilities. We are also watching the stalled Mindanao peace process which will be important for achieving a sustainable political solution and improving the security environment for local populations.    Finally, I highlight the excellent work that ASEAN has done to strengthen collaboration in meeting these challenges, including its leading role in achieving East Asia Summit statements on ISIL in 2014 and on countering violent extremism in 2015. We are committed to working into the future with ASEAN on information sharing, border security and law enforcement cooperation.    Mr. Chairman, these partnerships demonstrate the strong and growing commitment in Southeast Asia to push back against ISIL's hateful ideology in all forms of violent extremism. With continued U.S. engagement, backed by congressional support, we are confident the countries in the region will maintain a commitment to tackling terrorism and extremism.    Thank you, and I will be happy to answer your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you. Dr. Richards.</t>
   </si>
   <si>
-    <t>Richards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Richards. Chairman Salmon, Ranking Member Gabbard, distinguished members of the subcommittee, thank you for the opportunity to appear here today.    As you know, in the world today, we face an increasingly dynamic, diffused, and geographically decentralized set of terrorist threats. While the United States and our partners have made significant progress in reducing and denying terrorist safe havens, terrorist groups are still able to exploit local conditions and 21st century technology to attract, recruit, and conduct attacks. This is also true for Southeast Asia.    Globally, since 2012, we estimate that at least 36,000 foreign terrorist fighters from more than 120 countries have traveled to Syria and Iraq, including countries in Southeast Asia, particularly Indonesia and Malaysia. Some of these fighters have returned home, some are arrested, but as the trends continue, they are a danger to their own countries. It is clear that ISIL is inspiring terrorist activity in Southeast Asia. As the ranking member has mentioned, ISIL claimed responsibility via its English language online magazine Dabiq for the tragic attack in Jakarta this past January which was carried out by local pro-ISIS supporters.    And as the chairman has noted, our Southeast Asia partners take this threat very seriously. The law enforcement agencies have performed remarkably well in their efforts to arrest and disrupt terrorist activity. As the chairman said, the Jakarta attack could have been much deadlier if not for the effectiveness of Indonesian authorities.    That said, as President Obama has noted, we must develop more effective partnerships and tools to holistically address the evolving terrorist threat environment. We use the framework established by the U.N. Security Council Resolution 2174 which was passed in the U.N. General Assembly in 2014, sponsored by the United States. We use this as a framework for working with our partners including in Southeast Asia to put in place the fundamental reforms that will stem the flow of foreign fighters and counter violent extremism over the longer term. These points include: Increasing information sharing among countries; strengthening aviation and border security; implementing or enhancing counterterrorism legislation and supporting prosecutions and investigations; and increasing efforts to counter violent extremism particularly through strengthening community partnerships.    I will give you a few examples of how we are implementing this approach. To counter the flow of foreign terrorist fighters to conflict zones and returning from them, we are helping our partners strengthen their connectivity with Interpol. Malaysia just very recently began systematically reporting to Interpol lost and stolen travel document data. And they recently submitted 12,000 names for lost and stolen passports.    We are working with our Southeast Asia partners to build justice sector capacity. So as you know, Chairman, from your recent visit, Indonesia's improved capacity led to the conviction of Jemaah Islamiah, founder of Abu Bakar Bashir as well as the Bali bomb maker, Umar Patek, and they are both now in prison.    In the Philippines, the State Department is supporting the FBI which is assisting the Philippine Government in building terrorist financed investigations capacity. And we have had some success there as well. But even as we work to enhance security capacity, we must also work to prevent support for countering violent extremism and recruitment to violence.    So throughout Southeast Asia, we are focused on building the capacity of locally based, civil society actors in order to counteract terrorist recruitment. We are particularly looking at radicalization to violence in prisons and we are just at the beginning of this process, but we believe it is important because many people are radicalized in prison, so we are beginning to implement coming up with some pilot projects to identify terrorist prisoners, to track them through and to figure out how to remove the threat. Also, when they are brought back into the community, how do we handle that.    I will also say in closing that overall, we strongly believe that a whole of government, integrated, and coordinated approach is the only way to effectively address these threats over the longer term and our partnerships in Southeast Asia are vitally important as you have mentioned to our collective effort to counterterrorism globally as well as in the region.    I look forward to discussing these important issues with you today and thank you for holding this hearing.    [The prepared statement of Mr. Murphy and Ms. Richards follows:]                              ----------                              </t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thanks, Dr. Richards. Ms. Steele.</t>
   </si>
   <si>
-    <t>Steele</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Steele. Chairman Salmon, Ranking Member Gabbard, distinguished members of the subcommittee, thank you very much for the opportunity to testify on USAID's role in addressing the drivers of violent extremism in Southeast Asia.    Around the world, violent conflict, fragility and violent extremism pose significant threats to regional and global security. The costs of conflict in a developmental, economic and human sense are extraordinary. By neglecting the factors that drive conflict, we ignore the plight of 1\\1/2\\ billion people living in conflict and fragility around the world.    Knowing that violent extremists can exploit conditions of conflict and fragility, the United States Government has integrated the prevention and mitigation of conflict and the promotion of resilient, democratic societies as a key part of its defense, diplomacy and development efforts. Through this approach, and in coordination with our host countries and other donors, we help ensure progress in a broad range of priorities, including eradicating extreme poverty, while advancing the U.S.'s own security and prosperity.    At USAID, we focus on addressing the underlying socio-economic drivers of violent conflict, fragility, and violent extremism. Our multi-faceted approach considers host country commitment and capacity, builds local systems and local capacity to address the causes of violent extremism and conflict and includes women as partners in preventing conflict and building peace. Through analysis and monitoring, we ensure that our programs are effectively addressing the drivers of conflict in each unique country setting.    In the Asia-Pacific, we continue to see rapid economic growth lifting millions of people out of poverty. At the same time, growing inequality, weak governance--including corruption, social marginalization and violations of human rights are resulting in unequal access to justice and social services, particularly for members of marginalized populations. All of these issues can be drivers of instability and contribute to radicalization to violence.    USAID's work to advance democracy and promote human rights and good governance, helps to address these destabilizing factors. We encourage governments to provide all of their citizens with the space to engage in political processes, and we support civil society in voicing citizens' concerns. We work to strengthen the rule of law and government accountability in order to reduce corruption and impunity. We also build capacity for local governments to deliver health and education services. The lack of such services can create opportunities for service provision by extremist groups.    We also know that violent extremism respects no boundaries nor is it limited to any specific ideology. In countries like Burma and Sri Lanka, Muslims are also victims of violent extremism. In both countries, we are promoting tolerance and countering violence against minority, ethnic, and religious groups by encouraging the development of a balanced media and building civil society support for tolerant and inclusive speech.    Next, I will provide overviews of the three Southeast Asian countries where USAID is addressing drivers of conflict and violent extremism.    In Indonesia, impressive democratic and economic progress remains challenged by fragile institutions, corruption, and--as we saw with Jakarta's January terrorist attack--the threat of terrorism. Informed by our assessment of the drivers of violent extremism, USAID is providing access to justice and social services for the poor and most vulnerable, helping combat corruption and developing the capacity of civil society and the government to address the grievances of members of marginalized populations. We are, in addition, fostering pluralism and tolerance in Indonesia.    In the Philippines, despite significant economic and development gains, a resilient democracy and a strong civil society, the country continues to grapple with recurring insurgencies, politically motivated violence and some remaining terrorist organizations. Weak governance, including corruption, and high levels of marginalization and fragmentation have made the Autonomous Region of Muslim Mindanao particularly vulnerable.    In line with recent assessments, USAID focuses on improving local governments' ability to deliver social services in order to improve their legitimacy. We also focus on fostering greater transparency and accountability in government operations, and on fostering stronger civic engagement among local communities. We are helping 20,000 out-of-school youth to engage productively in civic and economic activities.    And finally, in southern Thailand, home to one of the most violent conflicts in the Asia-Pacific region, USAID is working to increase trust and common understanding among conflicting communities and in fostering religious tolerance.    Mr. Chairman, by addressing these destabilizing factors, our development assistance is helping to lay the foundation for security and peace for all populations in the Asia-Pacific and also the United States.    I appreciate the opportunity to testify today and look forward to your counsel and your questions. Thank you very much.</t>
   </si>
   <si>
@@ -173,9 +158,6 @@
   </si>
   <si>
     <t>400343</t>
-  </si>
-  <si>
-    <t>Dana Rohrabacher</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. And I appreciate you taking the time and effort to make sure that this hearing happened today on a very significant issue. I remember that back in 2001, the first real attack that I heard of after 9/11 happened in Bali where--and I happen to represent Surf City USA, Huntington Beach, and we took that very seriously, where just a group of surfers who were frankly enjoying themselves in the evening at one of their local bars, it was blown up and these are people who were no threat to anyone which indicated that we were, the world, when you combine that with what happened on 9/11, that the world was into a new challenge that we have faced and the good people of the world.    I will have to say that there is some skepticism on the part of some of us as to the way the administration is handling this unique challenge that we face. And I will say there are hints of that today, although let me just say that I have no doubt that each one of you are doing the very best job you can and I am grateful for it. I have three children who I want to live in a safer world. But I think that quite often this administration is mistaking the fight against radical Islamic terrorists, by the way a phrase which I have to note doesn't seem to be able to be spoken not only by our President, but even by the witnesses who come to Congress. I never heard that radical Islamic terrorism or just even Islamic terrorism. Instead, I hear about violent extremists as if we are not talking about Islamic terrorists at all. We are talking about extremists, whoever they are. No, what has happened is radical Islamic terrorists have declared war on the United States and on Western civilization, meaning our allies in this world. And I am sorry that you can't use those words because it takes away from the confidence that we could have in your efforts.    And in the fact that that seems to be something that indicates something, that it would be in my mind that you are taking a law-enforcement approach versus a counterterrorism approach. And law enforcement is a great deal different than counterterrorism. Law enforcement is that you basically will try to find out who has committed a crime and punish them for it and maybe to go out and to find out who is in a gang and try to get a message as you have described, and messages from people in Indonesia who are speaking out, Muslims are speaking out against this terrorism. But counterterrorism is you are dealing with monsters who kill innocent women and children, target them in order to terrorize a population. It is different than law enforcement. Totally different--not totally, but major differences in those approaches.    Let me ask you specifically, and again, I am afraid this administration and what I have heard today does not sway me from my apprehension that there is a problem there in the definition of what we are trying to do and the definition of who we are trying to get to or who we are trying to eliminate. Because we are not trying to eliminate violent extremists. That is not what is attacking our families and people throughout the world. It is radical Islamic terrorists.    Let me ask you about the Philippines, which I have spent a great deal of time in over the years. I understand there was recently an Abu Sayyaf terrorist attack in the Philippines. Is that correct? Can you give me some details on that?</t>
@@ -598,11 +580,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -622,13 +602,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -650,11 +628,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -674,13 +650,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -702,11 +676,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -726,13 +698,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -754,11 +724,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -778,13 +746,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -806,11 +772,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -830,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -858,11 +820,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -882,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -910,11 +868,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -934,13 +890,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -962,11 +916,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -986,13 +938,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1014,11 +964,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1038,13 +986,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1064,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1090,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1116,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1142,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1168,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1194,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1220,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1246,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1272,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1298,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1324,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1350,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1376,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1402,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1430,11 +1348,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1454,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-      <c r="G35" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1480,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1506,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" t="s">
-        <v>53</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1534,11 +1444,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1558,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1586,11 +1492,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1610,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1638,11 +1540,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99757.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99757.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. This subcommittee will come to order. Members present will be permitted to submit written statements to be included in the official hearing record. Without objection, the hearing record will remain open for 5 calendar days to allow statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    In recent months, violent attacks in Europe and expanding jihadist networks in Northern Africa have provided tragic and senseless reminders of the threat that terrorism and extremism pose to the world. As we discuss the global fight against the threat of terrorism, we don't first think of Southeast Asia. But this vibrant region, home to nearly 40 percent of the world's Muslim population, is also a crucial part of the global war on terror. Southeast Asia captures less U.S. media attention than other headline-grabbing flash points, but the region's efforts to combat extremism are vital to maintaining stability in some of the world's most successful Muslim majority states and ultimately to protecting the security of our homeland.    Today, we will discuss Southeast Asia's efforts to counter the threat of violent extremism, many of them successful, as well as possible opportunities for improvement. In this hearing, we will focus on the Philippines, Indonesia, and Malaysia, but Southeast Asia as a whole is at particular risk for extremist activity.    This area is home to a large Muslim population, very porous borders, and persistent governance challenges and development needs. Militant Islamic separatists and terrorists have operated in the region for decades, but the fight against such groups has yielded some successes for the United States and our partners.    The Southern Philippine Islands have long been home to active Islamist separatist and terrorist organizations. President Bush included the Philippines as part of the front lines of the global war on terror following 9/11 and launched an effort that helped the Filipinos significantly degrade these groups. These are due, in large part, to joint counterterror operations between Philippine and U.S. Armed Forces as well as close integration between our counterterrorism and development assistance.    The Aquino administration has also made significant progress toward settling Islamic separatist violence in Mindanao with the signing of the comprehensive agreement on the Bangsamoro despite the Philippine Congress' slow progress toward implementing the terms of the agreement.    Although the Philippines has enjoyed some success, it continues to feel the pain of extremist activities. Eighteen Filipino soldiers were killed earlier this week in a clash with the Abu Sayyaf Group.    Islamist militancy has similarly been a decades-long challenge for Indonesia. Indonesia has seen more than its share of domestic terrorist attacks, including the horrific Bali bombings in 2002 and several other attacks in the following years. In response, the Government of Indonesia has built up formidable counterterror capabilities in its military and its police force thanks, in part, to the considerable U.S. capacity building. It has taken great strides in countering military recruitment by marginalizing those who advocate violence and convincing the vast majority of Indonesians that such acts run counter to the teachings of Islam.    However, the Muslim majority nation of 253 million people continues to suffer tragic terrorist attacks, most recently the bomb and gunfire attack in Jakarta in January of this year. Observers credit the Indonesian Government, including the gift leadership of President Jokowi for the comparatively minor damage that the attack caused.    While Malaysia doesn't have a history of indigenous separatists or insurgencies carrying out terrorist attacks, its government has recognized the rising threat posed by global Islamic radicalism and has taken significant measures to counteract this threat. Malaysia continues to promote the moderate practice of Islam and has shifted resources to preventing militancy from taking root in its outlying provinces. Malaysia also continues to step up its counterterrorism cooperation multilaterally and bilaterally including support from ASEAN and participation in the Global Coalition to Counter ISIL.    We have got to ensure that the positive momentum in the fight against extremism in Southeast Asia is not lost. Unfortunately, these successes have been put at risk by changes in the landscape of extremism. Most concerning is the influence of Islamic State, its malicious and viral technology and the internationalization of violence that it promotes. Hundreds of Southeast Asians have joined the Islamic State's ranks in Syria and Iraq to forge new transnational links between the Islamic State and indigenous Southeast Asian extremists. The Islamic State has reached out to Southeast Asians through social media encouraging acts of violence. There is no formal Islamic State affiliate in Southeast Asia today, but there is a threat. The linkage of the Islamic State could empower militants and rekindle a broader terrorist threat in the region.    As global terror and extremism evolves, our strategy must do the same. Today, we are going to discuss how these new challenges will affect counterterror and counter violent extremism in the region.    I was just recently in Indonesia within the last couple of weeks and I met with the newly-appointed Minister of Counterterrorism, an upgrade, I guess, from being the Chief of Police. And I can tell you that this is front and center on their minds and they are very, very concerned about potential calamities in addition to the ones they have already had. But I was able to go to one of the madrasas and meet with some of the student leaders and I was really impressed with the caliber of these young people that I met and the fact that they stand with us against extreme factions with Islam.    I look forward to hearing from our distinguished panel to develop a better understanding of the administration's strategy for this crucial aspect of U.S. foreign policy and to identify further concerns that may need attention from the committee. And I would like to recognize the ranking member today, Ms. Gabbard.</t>
   </si>
   <si>
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you very much, Mr. Chairman. I appreciate you and Ranking Member Sherman for putting together this important hearing today and for our panelists for coming to share their insights and their thoughts.    While the world focuses on Islamic extremist threats that are facing countries in the Middle East and North Africa, it is critical that we not ignore this growing threat that we are seeing in other countries, in particular, in Southeast Asia which speaks to why this hearing is important.    The chairman talked about Indonesia where we saw an ISIS-linked attack in the capital of Jakarta with eight people being killed last January. Other countries in the region, also being very densely populated, where the concern is that continued attacks could lead to extensive casualties as well as great damage to those communities.    I look forward to hearing from our witnesses about what the U.S. is doing to help stop the spread of extremism in these countries. While it is not directly within this region, I do also want to mention Bangladesh, a country that continues to face growing violent jihadist problem. Last week, Nazimuddin Samad, a secular activist, was hacked to death in Dhaka following a horrific pattern that we have seen there now for the last year.    A few months ago, I introduced a resolution calling on the Government of Bangladesh to protect the rights of all of its religious minorities including Christians, Hindus, atheists, and others from these kinds of attacks. We must take action in these countries while there still is a chance to prevent groups like ISIS and their extremist ideology from growing.    Thank you very much again for being here. I look forward to hearing from you. I yield back.</t>
   </si>
   <si>
@@ -67,18 +82,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Chairman Salmon, Ranking Member Gabbard, distinguished members of the subcommittee, thank you very much for the opportunity to testify today on the very important and timely issue of countering violent extremism in Southeast Asia.    I also thank the committee for its sustained support of our broad engagement across the East Asia-Pacific region exemplified by the chairman's recent travel. Thank you very much for visiting us.    The United States and our partners across Southeast Asia work together to address challenges that transcend borders, including infectious disease, trafficking in persons, wildlife, illicit narcotics, organized crime, and of course, terrorism.    As President Obama told his ASEAN counterparts at the Sunnylands Summit just this February, our global counterterrorism strategy is informed in no small part by the successes over many years of Southeast Asian nations in disrupting terrorist plots, arresting sympathizers of terrorist organizations, and establishing mechanisms to counter extremist narratives.    The January attack in Jakarta referred to by the chairman and the ranking member and other recent attacks around the world, however, demonstrate that terrorist organizations, including ISIL, can support and inspire violence almost anywhere. That is why we are building partnerships with the countries in Southeast Asia facing the most active terrorist threats including Indonesia, Malaysia, the Philippines and others as well as regional organizations like ASEAN.    Indonesia, the world's most populous Muslim majority democracy, has seen success using a rule of law based approach to counterterrorism. Government and civil society leaders have forcibly denounced ISIL. Still, according to Indonesian officials, there are about 300 Indonesians actively fighting in Iraq and in Syria. While this is a small fraction of Indonesia's 250 million plus population, the existence of such fighters and the January 14th attack in Jakarta underscore ISIL's ability to attract recruits and inspire violence in that country. In response, the Indonesian Government recently introduced legislation that would give it better tools to counterterrorism.    Indonesia is an active member of the Global Counterterrorism Forum. The country's active civil society promotes the local practice of Islam as a positive and tolerant alternative to violent extremist ideologies.    To support these efforts, we are working with Indonesia across a range of activities including training law enforcement and judicial sector officials, sharing information to prevent terrorist travel, providing technical advice on prisoner management, and supporting local counter-messaging efforts.    In Malaysia, we are also concerned about ISIL's influence, particularly through online messaging. Since 2013, Malaysian authorities have arrested over 175 terrorist suspects, primarily ISIL supporters under the country's national security legislation. Malaysia joined the Global Coalition to Counter ISIL last September and announced that it will establish a regional center to counter ISIL messaging. We support these efforts and we look forward to attending the Center's opening in the coming months.    We have also strengthened technical assistance since Malaysian Deputy Prime Minister Zahid and Secretary of State John Kerry signed a terrorist watch list sharing arrangement this past October.    In the Philippines, terrorist and criminal elements such as the Abu Sayyaf group, exploit the security environment in the Southern Mindanao region. Although some terrorist groups have pledged allegiance to ISIL, most are focused on criminality and lack strong ideological motivations. We provide, train, and equip programs to support law enforcement and military forces in the Southern Philippines which have strengthened local capabilities. We are also watching the stalled Mindanao peace process which will be important for achieving a sustainable political solution and improving the security environment for local populations.    Finally, I highlight the excellent work that ASEAN has done to strengthen collaboration in meeting these challenges, including its leading role in achieving East Asia Summit statements on ISIL in 2014 and on countering violent extremism in 2015. We are committed to working into the future with ASEAN on information sharing, border security and law enforcement cooperation.    Mr. Chairman, these partnerships demonstrate the strong and growing commitment in Southeast Asia to push back against ISIL's hateful ideology in all forms of violent extremism. With continued U.S. engagement, backed by congressional support, we are confident the countries in the region will maintain a commitment to tackling terrorism and extremism.    Thank you, and I will be happy to answer your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you. Dr. Richards.</t>
   </si>
   <si>
+    <t>Richards</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Richards. Chairman Salmon, Ranking Member Gabbard, distinguished members of the subcommittee, thank you for the opportunity to appear here today.    As you know, in the world today, we face an increasingly dynamic, diffused, and geographically decentralized set of terrorist threats. While the United States and our partners have made significant progress in reducing and denying terrorist safe havens, terrorist groups are still able to exploit local conditions and 21st century technology to attract, recruit, and conduct attacks. This is also true for Southeast Asia.    Globally, since 2012, we estimate that at least 36,000 foreign terrorist fighters from more than 120 countries have traveled to Syria and Iraq, including countries in Southeast Asia, particularly Indonesia and Malaysia. Some of these fighters have returned home, some are arrested, but as the trends continue, they are a danger to their own countries. It is clear that ISIL is inspiring terrorist activity in Southeast Asia. As the ranking member has mentioned, ISIL claimed responsibility via its English language online magazine Dabiq for the tragic attack in Jakarta this past January which was carried out by local pro-ISIS supporters.    And as the chairman has noted, our Southeast Asia partners take this threat very seriously. The law enforcement agencies have performed remarkably well in their efforts to arrest and disrupt terrorist activity. As the chairman said, the Jakarta attack could have been much deadlier if not for the effectiveness of Indonesian authorities.    That said, as President Obama has noted, we must develop more effective partnerships and tools to holistically address the evolving terrorist threat environment. We use the framework established by the U.N. Security Council Resolution 2174 which was passed in the U.N. General Assembly in 2014, sponsored by the United States. We use this as a framework for working with our partners including in Southeast Asia to put in place the fundamental reforms that will stem the flow of foreign fighters and counter violent extremism over the longer term. These points include: Increasing information sharing among countries; strengthening aviation and border security; implementing or enhancing counterterrorism legislation and supporting prosecutions and investigations; and increasing efforts to counter violent extremism particularly through strengthening community partnerships.    I will give you a few examples of how we are implementing this approach. To counter the flow of foreign terrorist fighters to conflict zones and returning from them, we are helping our partners strengthen their connectivity with Interpol. Malaysia just very recently began systematically reporting to Interpol lost and stolen travel document data. And they recently submitted 12,000 names for lost and stolen passports.    We are working with our Southeast Asia partners to build justice sector capacity. So as you know, Chairman, from your recent visit, Indonesia's improved capacity led to the conviction of Jemaah Islamiah, founder of Abu Bakar Bashir as well as the Bali bomb maker, Umar Patek, and they are both now in prison.    In the Philippines, the State Department is supporting the FBI which is assisting the Philippine Government in building terrorist financed investigations capacity. And we have had some success there as well. But even as we work to enhance security capacity, we must also work to prevent support for countering violent extremism and recruitment to violence.    So throughout Southeast Asia, we are focused on building the capacity of locally based, civil society actors in order to counteract terrorist recruitment. We are particularly looking at radicalization to violence in prisons and we are just at the beginning of this process, but we believe it is important because many people are radicalized in prison, so we are beginning to implement coming up with some pilot projects to identify terrorist prisoners, to track them through and to figure out how to remove the threat. Also, when they are brought back into the community, how do we handle that.    I will also say in closing that overall, we strongly believe that a whole of government, integrated, and coordinated approach is the only way to effectively address these threats over the longer term and our partnerships in Southeast Asia are vitally important as you have mentioned to our collective effort to counterterrorism globally as well as in the region.    I look forward to discussing these important issues with you today and thank you for holding this hearing.    [The prepared statement of Mr. Murphy and Ms. Richards follows:]                              ----------                              </t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thanks, Dr. Richards. Ms. Steele.</t>
   </si>
   <si>
+    <t>Steele</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Steele. Chairman Salmon, Ranking Member Gabbard, distinguished members of the subcommittee, thank you very much for the opportunity to testify on USAID's role in addressing the drivers of violent extremism in Southeast Asia.    Around the world, violent conflict, fragility and violent extremism pose significant threats to regional and global security. The costs of conflict in a developmental, economic and human sense are extraordinary. By neglecting the factors that drive conflict, we ignore the plight of 1\\1/2\\ billion people living in conflict and fragility around the world.    Knowing that violent extremists can exploit conditions of conflict and fragility, the United States Government has integrated the prevention and mitigation of conflict and the promotion of resilient, democratic societies as a key part of its defense, diplomacy and development efforts. Through this approach, and in coordination with our host countries and other donors, we help ensure progress in a broad range of priorities, including eradicating extreme poverty, while advancing the U.S.'s own security and prosperity.    At USAID, we focus on addressing the underlying socio-economic drivers of violent conflict, fragility, and violent extremism. Our multi-faceted approach considers host country commitment and capacity, builds local systems and local capacity to address the causes of violent extremism and conflict and includes women as partners in preventing conflict and building peace. Through analysis and monitoring, we ensure that our programs are effectively addressing the drivers of conflict in each unique country setting.    In the Asia-Pacific, we continue to see rapid economic growth lifting millions of people out of poverty. At the same time, growing inequality, weak governance--including corruption, social marginalization and violations of human rights are resulting in unequal access to justice and social services, particularly for members of marginalized populations. All of these issues can be drivers of instability and contribute to radicalization to violence.    USAID's work to advance democracy and promote human rights and good governance, helps to address these destabilizing factors. We encourage governments to provide all of their citizens with the space to engage in political processes, and we support civil society in voicing citizens' concerns. We work to strengthen the rule of law and government accountability in order to reduce corruption and impunity. We also build capacity for local governments to deliver health and education services. The lack of such services can create opportunities for service provision by extremist groups.    We also know that violent extremism respects no boundaries nor is it limited to any specific ideology. In countries like Burma and Sri Lanka, Muslims are also victims of violent extremism. In both countries, we are promoting tolerance and countering violence against minority, ethnic, and religious groups by encouraging the development of a balanced media and building civil society support for tolerant and inclusive speech.    Next, I will provide overviews of the three Southeast Asian countries where USAID is addressing drivers of conflict and violent extremism.    In Indonesia, impressive democratic and economic progress remains challenged by fragile institutions, corruption, and--as we saw with Jakarta's January terrorist attack--the threat of terrorism. Informed by our assessment of the drivers of violent extremism, USAID is providing access to justice and social services for the poor and most vulnerable, helping combat corruption and developing the capacity of civil society and the government to address the grievances of members of marginalized populations. We are, in addition, fostering pluralism and tolerance in Indonesia.    In the Philippines, despite significant economic and development gains, a resilient democracy and a strong civil society, the country continues to grapple with recurring insurgencies, politically motivated violence and some remaining terrorist organizations. Weak governance, including corruption, and high levels of marginalization and fragmentation have made the Autonomous Region of Muslim Mindanao particularly vulnerable.    In line with recent assessments, USAID focuses on improving local governments' ability to deliver social services in order to improve their legitimacy. We also focus on fostering greater transparency and accountability in government operations, and on fostering stronger civic engagement among local communities. We are helping 20,000 out-of-school youth to engage productively in civic and economic activities.    And finally, in southern Thailand, home to one of the most violent conflicts in the Asia-Pacific region, USAID is working to increase trust and common understanding among conflicting communities and in fostering religious tolerance.    Mr. Chairman, by addressing these destabilizing factors, our development assistance is helping to lay the foundation for security and peace for all populations in the Asia-Pacific and also the United States.    I appreciate the opportunity to testify today and look forward to your counsel and your questions. Thank you very much.</t>
   </si>
   <si>
@@ -158,6 +182,12 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Thank you very much, Mr. Chairman. And I appreciate you taking the time and effort to make sure that this hearing happened today on a very significant issue. I remember that back in 2001, the first real attack that I heard of after 9/11 happened in Bali where--and I happen to represent Surf City USA, Huntington Beach, and we took that very seriously, where just a group of surfers who were frankly enjoying themselves in the evening at one of their local bars, it was blown up and these are people who were no threat to anyone which indicated that we were, the world, when you combine that with what happened on 9/11, that the world was into a new challenge that we have faced and the good people of the world.    I will have to say that there is some skepticism on the part of some of us as to the way the administration is handling this unique challenge that we face. And I will say there are hints of that today, although let me just say that I have no doubt that each one of you are doing the very best job you can and I am grateful for it. I have three children who I want to live in a safer world. But I think that quite often this administration is mistaking the fight against radical Islamic terrorists, by the way a phrase which I have to note doesn't seem to be able to be spoken not only by our President, but even by the witnesses who come to Congress. I never heard that radical Islamic terrorism or just even Islamic terrorism. Instead, I hear about violent extremists as if we are not talking about Islamic terrorists at all. We are talking about extremists, whoever they are. No, what has happened is radical Islamic terrorists have declared war on the United States and on Western civilization, meaning our allies in this world. And I am sorry that you can't use those words because it takes away from the confidence that we could have in your efforts.    And in the fact that that seems to be something that indicates something, that it would be in my mind that you are taking a law-enforcement approach versus a counterterrorism approach. And law enforcement is a great deal different than counterterrorism. Law enforcement is that you basically will try to find out who has committed a crime and punish them for it and maybe to go out and to find out who is in a gang and try to get a message as you have described, and messages from people in Indonesia who are speaking out, Muslims are speaking out against this terrorism. But counterterrorism is you are dealing with monsters who kill innocent women and children, target them in order to terrorize a population. It is different than law enforcement. Totally different--not totally, but major differences in those approaches.    Let me ask you specifically, and again, I am afraid this administration and what I have heard today does not sway me from my apprehension that there is a problem there in the definition of what we are trying to do and the definition of who we are trying to get to or who we are trying to eliminate. Because we are not trying to eliminate violent extremists. That is not what is attacking our families and people throughout the world. It is radical Islamic terrorists.    Let me ask you about the Philippines, which I have spent a great deal of time in over the years. I understand there was recently an Abu Sayyaf terrorist attack in the Philippines. Is that correct? Can you give me some details on that?</t>
@@ -530,7 +560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,989 +590,1163 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
       <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
       <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99757.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99757.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412532</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Gabbard</t>
@@ -560,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +577,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -593,1160 +602,1252 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G35" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G37" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>25</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
